--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_2_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1215005.66808464</v>
+        <v>1211531.698056341</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564202</v>
+        <v>189902.9539564201</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>158.9897392454093</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.035478308479</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>17.49690079789916</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>27.02952366315214</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>29.22883044751075</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -1075,7 +1075,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>101.3341794774131</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>87.81575107239209</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.66811582074975</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>340.0237825764897</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>275.4805812731079</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>29.22883044751052</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>48.91401559658163</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228954</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>68.2276977578159</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,16 +2056,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,10 +2081,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>323.9918595228957</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>146.2546375217498</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>269.513456948084</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.390346842435148</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>231.6968229440582</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,28 +2600,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2764,19 +2764,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>29.41204342723536</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.1498336210771</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,13 +3026,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>394.0215017740269</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,13 +3086,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>22.11041309544134</v>
       </c>
       <c r="U34" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>1.998219257061432</v>
       </c>
       <c r="W35" t="n">
-        <v>123.2489740555614</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>190.2713935802968</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>365.3419785295457</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>29.22883044751035</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>205.1478855987997</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>275.4805812731078</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,10 +3898,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>99.44420492154089</v>
+        <v>11.67884460201119</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,22 +3980,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>111.9240296277377</v>
+        <v>135.7761742049804</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>40.55095684449111</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>214.5386780278486</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C2" t="n">
-        <v>214.5386780278486</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>1578.817794086271</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>1193.029541488027</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>782.043636698419</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>364.0798285966059</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y2" t="n">
-        <v>601.1385180919704</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037877</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>807.3934508328825</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>396.407546043275</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4601,16 +4601,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>936.2491605982757</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C8" t="n">
-        <v>567.286643657864</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D8" t="n">
-        <v>567.286643657864</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E8" t="n">
         <v>464.928886609972</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859356</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982757</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982757</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4902,22 +4902,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>257.0633493392342</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1194.175505447095</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C11" t="n">
-        <v>1194.175505447095</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.175505447095</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="E11" t="n">
-        <v>808.3872528488505</v>
+        <v>1161.155908118965</v>
       </c>
       <c r="F11" t="n">
-        <v>397.4013480592429</v>
+        <v>750.1700033293573</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>332.2061952275442</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5039,19 +5039,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5078,13 +5078,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5203,40 +5203,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>308.6274700262513</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X13" t="n">
         <v>53.94298182036445</v>
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5279,16 +5279,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5318,10 +5318,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="15">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>377.5443364482876</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D16" t="n">
-        <v>377.5443364482876</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E16" t="n">
-        <v>377.5443364482876</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F16" t="n">
-        <v>377.5443364482876</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>261.099450950038</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>103.3510783825681</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785532</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889456</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5513,19 +5513,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5555,10 +5555,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>122.8598482424007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>122.8598482424007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>122.8598482424007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>122.8598482424007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>122.8598482424007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
         <v>53.94298182036445</v>
@@ -5704,19 +5704,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W19" t="n">
-        <v>473.4444960005474</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X19" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>1177.981643776798</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D20" t="n">
-        <v>1177.981643776798</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E20" t="n">
-        <v>792.1933911785536</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F20" t="n">
-        <v>381.2074863889461</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,28 +5768,28 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
         <v>2323.683332757143</v>
@@ -5826,28 +5826,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>2476.356511874692</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>2328.624554782016</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>2328.624554782016</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U22" t="n">
-        <v>598.044640063212</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V22" t="n">
-        <v>343.3601518573251</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036446</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036446</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247703</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.952954307291</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E23" t="n">
-        <v>737.1647017090468</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F23" t="n">
-        <v>326.1787969194392</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6078,13 +6078,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>398.3338608103785</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>229.3976778824716</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>60.397877620804</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>60.397877620804</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6154,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U25" t="n">
-        <v>598.044640063212</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V25" t="n">
-        <v>343.3601518573251</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1920.409918978289</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C26" t="n">
-        <v>1551.447402037877</v>
+        <v>1116.929889604773</v>
       </c>
       <c r="D26" t="n">
-        <v>1193.181703431127</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E26" t="n">
-        <v>807.3934508328825</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>396.407546043275</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6227,10 +6227,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y26" t="n">
-        <v>2307.009759042411</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="27">
@@ -6315,13 +6315,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6412,16 +6412,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>571.3497027553424</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W28" t="n">
-        <v>281.9325327183818</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X28" t="n">
         <v>53.94298182036445</v>
@@ -6552,13 +6552,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>83.65211659534967</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6649,22 +6649,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>502.7251118619119</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W31" t="n">
-        <v>502.7251118619119</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X31" t="n">
-        <v>274.7355609638946</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>1975.94687169884</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>1606.984354758428</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>1248.718656151678</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>862.9304035534335</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>451.9444987638259</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6698,13 +6698,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6734,16 +6734,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="33">
@@ -6789,13 +6789,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T34" t="n">
-        <v>2469.840903686824</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U34" t="n">
-        <v>2277.64757683804</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1036.358670716696</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C35" t="n">
-        <v>1036.358670716696</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D35" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V35" t="n">
-        <v>2311.057514205145</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W35" t="n">
-        <v>2186.563601017709</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X35" t="n">
-        <v>1813.097842756629</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y35" t="n">
-        <v>1422.958510780817</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>500.820796875036</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>308.6274700262513</v>
+        <v>2567.064746875001</v>
       </c>
       <c r="V37" t="n">
-        <v>53.94298182036445</v>
+        <v>2312.380258669114</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="38">
@@ -7148,70 +7148,70 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C38" t="n">
-        <v>1546.944160717209</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D38" t="n">
-        <v>1546.944160717209</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E38" t="n">
-        <v>1161.155908118965</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F38" t="n">
-        <v>750.1700033293573</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533144</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X38" t="n">
         <v>2323.683332757143</v>
@@ -7248,10 +7248,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
         <v>309.190302261463</v>
@@ -7266,10 +7266,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2515.500626187983</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C40" t="n">
-        <v>2346.564443260076</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D40" t="n">
-        <v>2346.564443260076</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>2346.564443260076</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>2317.040372100974</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>2159.291999533505</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y40" t="n">
-        <v>2697.149091018222</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036425</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7445,16 +7445,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
@@ -7497,34 +7497,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>473.4444960005474</v>
+        <v>65.73979454966869</v>
       </c>
       <c r="C43" t="n">
-        <v>304.5083130726405</v>
+        <v>65.73979454966869</v>
       </c>
       <c r="D43" t="n">
-        <v>154.3916736603047</v>
+        <v>65.73979454966869</v>
       </c>
       <c r="E43" t="n">
-        <v>154.3916736603047</v>
+        <v>65.73979454966869</v>
       </c>
       <c r="F43" t="n">
-        <v>154.3916736603047</v>
+        <v>65.73979454966869</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="V43" t="n">
-        <v>473.4444960005474</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="W43" t="n">
-        <v>473.4444960005474</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="X43" t="n">
-        <v>473.4444960005474</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="Y43" t="n">
-        <v>473.4444960005474</v>
+        <v>65.73979454966869</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>936.2491605982757</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C44" t="n">
-        <v>936.2491605982757</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="D44" t="n">
-        <v>577.9834619915252</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="E44" t="n">
-        <v>577.9834619915252</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="F44" t="n">
-        <v>166.9975572019177</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="G44" t="n">
-        <v>166.9975572019177</v>
+        <v>518.285352496463</v>
       </c>
       <c r="H44" t="n">
-        <v>166.9975572019177</v>
+        <v>191.0906325324659</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7676,10 +7676,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V44" t="n">
         <v>1662.48357412947</v>
@@ -7688,10 +7688,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>936.2491605982757</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y44" t="n">
-        <v>936.2491605982757</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="45">
@@ -7701,67 +7701,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7813,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005474</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W46" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>252.6519168570173</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627449</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,7 +9726,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,7 +9963,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714828</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928328</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11145,7 +11145,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22550,19 +22550,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>195.6933023752737</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>16.88729445587813</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>149.8129014611517</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,10 +22756,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22796,10 +22796,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22841,13 +22841,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>342.7015770153169</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22939,22 +22939,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>138.0809718115402</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22963,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22987,7 +22987,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>280.5961905948486</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23066,28 +23066,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>281.9153496060769</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,7 +23176,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23185,10 +23185,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.76584682581942</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23230,16 +23230,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168073</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>73.76038744430531</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>48.44219149124928</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23318,7 +23318,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>96.68503059263364</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049789962</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.0809718115404</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.05160619575659</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049789962</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23795,7 +23795,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>87.94319108397924</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
         <v>134.9656217923382</v>
@@ -23944,16 +23944,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,10 +23969,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>89.79231049789928</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>20.99218357687803</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
@@ -24181,19 +24181,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>144.270713072711</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>128.5752749499031</v>
       </c>
       <c r="J25" t="n">
         <v>45.199959188537</v>
@@ -24409,7 +24409,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24418,13 +24418,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,22 +24440,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>122.9862186766248</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,28 +24488,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24652,19 +24652,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>69.82361682150338</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>126.7588454145598</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24889,19 +24889,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>1.885271837007195</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24914,13 +24914,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>19.7626682467681</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24974,13 +24974,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>202.9246923626429</v>
       </c>
       <c r="U34" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25166,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25211,10 +25211,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>325.7540392130735</v>
       </c>
       <c r="W35" t="n">
-        <v>225.9919946618516</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25363,16 +25363,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>96.01048066168096</v>
+        <v>157.4983735401879</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,10 +25403,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>48.44219149124928</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.0809718115406</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>13.43676775329507</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.79231049789979</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>67.86559733751002</v>
+        <v>155.6309576570397</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25834,16 +25834,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,22 +25868,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.00728661712355</v>
+        <v>16.15514203988087</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>126.7588454145598</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
         <v>134.9656217923382</v>
@@ -26068,28 +26068,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>202.924692362643</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092097</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>726139.7136092099</v>
+        <v>726139.71360921</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726139.71360921</v>
+        <v>726139.7136092101</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>726139.7136092101</v>
+        <v>726139.71360921</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165452</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="E2" t="n">
         <v>303610.2405165454</v>
@@ -26326,16 +26326,16 @@
         <v>303610.2405165454</v>
       </c>
       <c r="G2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="H2" t="n">
         <v>303610.2405165453</v>
       </c>
-      <c r="H2" t="n">
-        <v>303610.2405165454</v>
-      </c>
       <c r="I2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="J2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="K2" t="n">
         <v>303610.2405165454</v>
@@ -26344,16 +26344,16 @@
         <v>303610.2405165454</v>
       </c>
       <c r="M2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165452</v>
       </c>
       <c r="N2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="O2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="P2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165455</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="C4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="D4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="E4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="F4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="G4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="H4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="I4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="J4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="K4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="L4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="M4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966327</v>
       </c>
       <c r="N4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="O4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>17813.71306019599</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26485,10 +26485,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26500,16 +26500,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-387030.4298216046</v>
+        <v>-387445.6443310719</v>
       </c>
       <c r="C6" t="n">
-        <v>202937.44939294</v>
+        <v>202522.2348834727</v>
       </c>
       <c r="D6" t="n">
-        <v>202937.4493929399</v>
+        <v>202522.2348834726</v>
       </c>
       <c r="E6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="F6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="G6" t="n">
-        <v>236565.0493929399</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="H6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="I6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834728</v>
       </c>
       <c r="J6" t="n">
-        <v>60141.83020034699</v>
+        <v>59726.61569087984</v>
       </c>
       <c r="K6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834727</v>
       </c>
       <c r="L6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="M6" t="n">
-        <v>236565.0493929399</v>
+        <v>236149.8348834724</v>
       </c>
       <c r="N6" t="n">
-        <v>236565.0493929401</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="O6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834726</v>
       </c>
       <c r="P6" t="n">
-        <v>236565.04939294</v>
+        <v>236149.8348834728</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26805,10 +26805,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31756,19 +31756,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31783,13 +31783,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31932,16 +31932,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -31993,19 +31993,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32020,13 +32020,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,16 +32145,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32169,16 +32169,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530448</v>
       </c>
       <c r="P11" t="n">
         <v>308.9376163116798</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35735,16 +35735,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
         <v>421.5361394435301</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,7 +36209,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36455,7 +36455,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
         <v>478.8956552492236</v>
@@ -36920,7 +36920,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37166,7 +37166,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37312,7 +37312,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060969</v>
       </c>
       <c r="N35" t="n">
         <v>478.8956552492236</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37391,7 +37391,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N36" t="n">
         <v>559.3197334338902</v>
@@ -37403,7 +37403,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181313</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37634,13 +37634,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38114,7 +38114,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
